--- a/data/long_dif/BESCORE_R-Urba-long_dif.xlsx
+++ b/data/long_dif/BESCORE_R-Urba-long_dif.xlsx
@@ -680,7 +680,7 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Peor diferencia negativa</t>
+          <t>Peor</t>
         </is>
       </c>
       <c r="C4" s="5" t="n">
@@ -839,7 +839,7 @@
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C7" s="5" t="n">
@@ -998,7 +998,7 @@
       <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Mejor Diferencia Positiva</t>
+          <t>Mejor</t>
         </is>
       </c>
       <c r="C10" s="5" t="n">
@@ -1161,7 +1161,7 @@
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>Peor diferencia negativa</t>
+          <t>Peor</t>
         </is>
       </c>
       <c r="C13" s="5" t="n">
@@ -1320,7 +1320,7 @@
       <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C16" s="5" t="n">
@@ -1479,7 +1479,7 @@
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>Mejor Diferencia Positiva</t>
+          <t>Mejor</t>
         </is>
       </c>
       <c r="C19" s="5" t="n">
@@ -1642,7 +1642,7 @@
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Peor diferencia negativa</t>
+          <t>Peor</t>
         </is>
       </c>
       <c r="C22" s="5" t="n">
@@ -1783,7 +1783,7 @@
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C25" s="5" t="n">
@@ -1920,7 +1920,7 @@
       <c r="A28" s="1" t="n"/>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>Mejor Diferencia Positiva</t>
+          <t>Mejor</t>
         </is>
       </c>
       <c r="C28" s="5" t="n">
@@ -2065,7 +2065,7 @@
       </c>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>Peor diferencia negativa</t>
+          <t>Peor</t>
         </is>
       </c>
       <c r="C31" s="5" t="n">
@@ -2224,7 +2224,7 @@
       <c r="A34" s="1" t="n"/>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C34" s="5" t="n">
@@ -2383,7 +2383,7 @@
       <c r="A37" s="1" t="n"/>
       <c r="B37" s="3" t="inlineStr">
         <is>
-          <t>Mejor Diferencia Positiva</t>
+          <t>Mejor</t>
         </is>
       </c>
       <c r="C37" s="5" t="n">
